--- a/data/pca/factorExposure/factorExposure_2019-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1112722684205239</v>
+        <v>-0.06773958588809914</v>
       </c>
       <c r="C2">
-        <v>-0.0196371867894988</v>
+        <v>0.03405105910946386</v>
       </c>
       <c r="D2">
-        <v>-0.04325165139396202</v>
+        <v>0.01702968153050902</v>
       </c>
       <c r="E2">
-        <v>-0.09466928768692758</v>
+        <v>0.04050653165554318</v>
       </c>
       <c r="F2">
-        <v>0.1090630540379204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1375558273481701</v>
+      </c>
+      <c r="G2">
+        <v>-0.06413488027657831</v>
+      </c>
+      <c r="H2">
+        <v>0.04163127427616392</v>
+      </c>
+      <c r="I2">
+        <v>-0.06653049131408935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2171523618744121</v>
+        <v>-0.1601809609656717</v>
       </c>
       <c r="C3">
-        <v>-0.1450020842969783</v>
+        <v>0.1017879730980095</v>
       </c>
       <c r="D3">
-        <v>0.05239025183786191</v>
+        <v>-0.008250583004234289</v>
       </c>
       <c r="E3">
-        <v>-0.144672695367212</v>
+        <v>-0.001478556585820144</v>
       </c>
       <c r="F3">
-        <v>0.3213000552124562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3763290060467018</v>
+      </c>
+      <c r="G3">
+        <v>-0.240924170101627</v>
+      </c>
+      <c r="H3">
+        <v>0.04340222275902195</v>
+      </c>
+      <c r="I3">
+        <v>-0.3211973024759554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09580682108419572</v>
+        <v>-0.0723710376093923</v>
       </c>
       <c r="C4">
-        <v>-0.04894389036120948</v>
+        <v>0.04663193684985922</v>
       </c>
       <c r="D4">
-        <v>-0.02939121946813818</v>
+        <v>-0.01673442468911302</v>
       </c>
       <c r="E4">
-        <v>-0.02702625138119462</v>
+        <v>0.04156282435697742</v>
       </c>
       <c r="F4">
-        <v>0.07121670531584474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07988055110038177</v>
+      </c>
+      <c r="G4">
+        <v>-0.02845912579080263</v>
+      </c>
+      <c r="H4">
+        <v>0.03945910827177737</v>
+      </c>
+      <c r="I4">
+        <v>-0.03974952356202485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02063600790255975</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01063606087370886</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005365175990342901</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004371979103709878</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007033175158385423</v>
+      </c>
+      <c r="G6">
+        <v>0.006656978280505131</v>
+      </c>
+      <c r="H6">
+        <v>-0.01852513422565916</v>
+      </c>
+      <c r="I6">
+        <v>0.01453098613822231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04353609992517023</v>
+        <v>-0.03504345857719744</v>
       </c>
       <c r="C7">
-        <v>-0.02070053860581326</v>
+        <v>0.01791408370887756</v>
       </c>
       <c r="D7">
-        <v>-0.02999146361739981</v>
+        <v>-0.03633725637401492</v>
       </c>
       <c r="E7">
-        <v>-0.06096273294196975</v>
+        <v>0.03057813789352041</v>
       </c>
       <c r="F7">
-        <v>0.03786564509560647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05356653272153704</v>
+      </c>
+      <c r="G7">
+        <v>-0.05099810349259799</v>
+      </c>
+      <c r="H7">
+        <v>-0.00434708688284819</v>
+      </c>
+      <c r="I7">
+        <v>-0.008122542497988383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04705620305147752</v>
+        <v>-0.02839681904471195</v>
       </c>
       <c r="C8">
-        <v>-0.05502123283522696</v>
+        <v>0.0497067536414286</v>
       </c>
       <c r="D8">
-        <v>-0.007038171445013467</v>
+        <v>-0.01399259321575631</v>
       </c>
       <c r="E8">
-        <v>-0.01907990664981538</v>
+        <v>0.02211607475653786</v>
       </c>
       <c r="F8">
-        <v>0.06977429903757915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07270355587876963</v>
+      </c>
+      <c r="G8">
+        <v>-0.04444153863759034</v>
+      </c>
+      <c r="H8">
+        <v>0.03368805916979317</v>
+      </c>
+      <c r="I8">
+        <v>-0.04848728104143171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08225609913106384</v>
+        <v>-0.0613722028325247</v>
       </c>
       <c r="C9">
-        <v>-0.04197767834525332</v>
+        <v>0.04236999036090416</v>
       </c>
       <c r="D9">
-        <v>-0.03785620022041575</v>
+        <v>-0.0204054014146746</v>
       </c>
       <c r="E9">
-        <v>-0.003648404624306438</v>
+        <v>0.03659839593933249</v>
       </c>
       <c r="F9">
-        <v>0.06828173136839943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07957838699081606</v>
+      </c>
+      <c r="G9">
+        <v>-0.02937042375461585</v>
+      </c>
+      <c r="H9">
+        <v>0.0375457806668138</v>
+      </c>
+      <c r="I9">
+        <v>-0.0171437589821639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02312120773250458</v>
+        <v>-0.03715759230128217</v>
       </c>
       <c r="C10">
-        <v>0.1658639211443264</v>
+        <v>-0.1612617525004684</v>
       </c>
       <c r="D10">
-        <v>0.01858176139516796</v>
+        <v>0.01625026792948094</v>
       </c>
       <c r="E10">
-        <v>-0.06147191135989667</v>
+        <v>-0.03609132318769451</v>
       </c>
       <c r="F10">
-        <v>0.03580986503680689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0642438408570588</v>
+      </c>
+      <c r="G10">
+        <v>-0.004827381436687184</v>
+      </c>
+      <c r="H10">
+        <v>0.03291824453230403</v>
+      </c>
+      <c r="I10">
+        <v>-0.1000476121970343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05849057299239641</v>
+        <v>-0.04917537601521722</v>
       </c>
       <c r="C11">
-        <v>-0.01475834183210664</v>
+        <v>0.03206594503479152</v>
       </c>
       <c r="D11">
-        <v>0.003693991783546889</v>
+        <v>0.004683017878226964</v>
       </c>
       <c r="E11">
-        <v>-0.03181692489460011</v>
+        <v>0.01076400708153853</v>
       </c>
       <c r="F11">
-        <v>0.03167451179107175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03858176138932541</v>
+      </c>
+      <c r="G11">
+        <v>-0.00381759694929258</v>
+      </c>
+      <c r="H11">
+        <v>0.01379428360622179</v>
+      </c>
+      <c r="I11">
+        <v>0.003433987410358024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04466310134881051</v>
+        <v>-0.04427477562450621</v>
       </c>
       <c r="C12">
-        <v>-0.01826596034407697</v>
+        <v>0.02868407253070765</v>
       </c>
       <c r="D12">
-        <v>0.002245739686197961</v>
+        <v>-0.00640062963774064</v>
       </c>
       <c r="E12">
-        <v>-0.01132650090606961</v>
+        <v>0.01145056329482379</v>
       </c>
       <c r="F12">
-        <v>0.02731650546381516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01559702677900038</v>
+      </c>
+      <c r="G12">
+        <v>-0.005867971966227772</v>
+      </c>
+      <c r="H12">
+        <v>0.003478556010507032</v>
+      </c>
+      <c r="I12">
+        <v>0.004360785422453178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06302247862698943</v>
+        <v>-0.04379800004451707</v>
       </c>
       <c r="C13">
-        <v>-0.03072597491139805</v>
+        <v>0.02620497936787161</v>
       </c>
       <c r="D13">
-        <v>0.00421026317317666</v>
+        <v>0.01426152601129104</v>
       </c>
       <c r="E13">
-        <v>-0.07538180149746236</v>
+        <v>0.009657194920920589</v>
       </c>
       <c r="F13">
-        <v>0.08695582704176086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1039124911015179</v>
+      </c>
+      <c r="G13">
+        <v>-0.04156231845652592</v>
+      </c>
+      <c r="H13">
+        <v>0.02193600247957087</v>
+      </c>
+      <c r="I13">
+        <v>-0.03069331017838926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03329240513524813</v>
+        <v>-0.02709013785611191</v>
       </c>
       <c r="C14">
-        <v>-0.02675053056017256</v>
+        <v>0.02030528984274038</v>
       </c>
       <c r="D14">
-        <v>-0.02709646317382496</v>
+        <v>-0.006936651814552482</v>
       </c>
       <c r="E14">
-        <v>-0.02941713835970194</v>
+        <v>0.02791153305043598</v>
       </c>
       <c r="F14">
-        <v>0.015107587424788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03768696655568913</v>
+      </c>
+      <c r="G14">
+        <v>-0.05974265381141902</v>
+      </c>
+      <c r="H14">
+        <v>0.01095053562062307</v>
+      </c>
+      <c r="I14">
+        <v>-0.01266993471770723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04805186259771024</v>
+        <v>-0.04237769171961409</v>
       </c>
       <c r="C16">
-        <v>-0.02375432852653491</v>
+        <v>0.03597423976397345</v>
       </c>
       <c r="D16">
-        <v>0.007206364966126204</v>
+        <v>-0.0009646027917998455</v>
       </c>
       <c r="E16">
-        <v>-0.020714311999092</v>
+        <v>0.009541496458363026</v>
       </c>
       <c r="F16">
-        <v>0.02820836949913179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03532650602060085</v>
+      </c>
+      <c r="G16">
+        <v>-0.00513302198478288</v>
+      </c>
+      <c r="H16">
+        <v>0.002741012755992982</v>
+      </c>
+      <c r="I16">
+        <v>-0.003277995692644306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0549528273621511</v>
+        <v>-0.05097466845475187</v>
       </c>
       <c r="C19">
-        <v>-0.0523900758620604</v>
+        <v>0.04468464867737527</v>
       </c>
       <c r="D19">
-        <v>0.00311740640278803</v>
+        <v>0.0011337267570907</v>
       </c>
       <c r="E19">
-        <v>-0.0530577520258859</v>
+        <v>0.02373623464133775</v>
       </c>
       <c r="F19">
-        <v>0.0636966243136055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.08938023667509457</v>
+      </c>
+      <c r="G19">
+        <v>-0.06182064862543665</v>
+      </c>
+      <c r="H19">
+        <v>0.00514109350239034</v>
+      </c>
+      <c r="I19">
+        <v>-0.0537698818247942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0374709255157761</v>
+        <v>-0.01909660343839454</v>
       </c>
       <c r="C20">
-        <v>-0.04126988946103067</v>
+        <v>0.02880921718484591</v>
       </c>
       <c r="D20">
-        <v>-0.01469604855225762</v>
+        <v>-0.007158119913478403</v>
       </c>
       <c r="E20">
-        <v>-0.03097786304674772</v>
+        <v>0.02270601975445594</v>
       </c>
       <c r="F20">
-        <v>0.06024672472877377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06502183671612503</v>
+      </c>
+      <c r="G20">
+        <v>-0.06304925655233914</v>
+      </c>
+      <c r="H20">
+        <v>0.0003891696917952384</v>
+      </c>
+      <c r="I20">
+        <v>-0.05051134838177854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03464749784635406</v>
+        <v>-0.03239489308297502</v>
       </c>
       <c r="C21">
-        <v>-0.03403896273521923</v>
+        <v>0.02829787166176197</v>
       </c>
       <c r="D21">
-        <v>-0.007279336200030166</v>
+        <v>-0.01370437912668818</v>
       </c>
       <c r="E21">
-        <v>-0.07729475054524998</v>
+        <v>0.008756638991540375</v>
       </c>
       <c r="F21">
-        <v>0.08151540146620108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.08257320006529209</v>
+      </c>
+      <c r="G21">
+        <v>-0.03263885679682656</v>
+      </c>
+      <c r="H21">
+        <v>0.04263278634402618</v>
+      </c>
+      <c r="I21">
+        <v>0.01549223785179164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05161806470128741</v>
+        <v>-0.04183003090329115</v>
       </c>
       <c r="C24">
-        <v>-0.02111740356703298</v>
+        <v>0.02952480024184252</v>
       </c>
       <c r="D24">
-        <v>0.002104051595261512</v>
+        <v>-0.001238753310685445</v>
       </c>
       <c r="E24">
-        <v>-0.02277763356286969</v>
+        <v>0.01167877455305967</v>
       </c>
       <c r="F24">
-        <v>0.03958657719976724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03905361795583552</v>
+      </c>
+      <c r="G24">
+        <v>-0.002634419812735894</v>
+      </c>
+      <c r="H24">
+        <v>0.0054070559768618</v>
+      </c>
+      <c r="I24">
+        <v>0.002553434782238068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05219662464098114</v>
+        <v>-0.04831935394310922</v>
       </c>
       <c r="C25">
-        <v>-0.01268904676392258</v>
+        <v>0.02603374379699199</v>
       </c>
       <c r="D25">
-        <v>0.001415129082667485</v>
+        <v>0.0001337034574996421</v>
       </c>
       <c r="E25">
-        <v>-0.0243487521581824</v>
+        <v>0.009924301811444316</v>
       </c>
       <c r="F25">
-        <v>0.03457710658210212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04450161741059462</v>
+      </c>
+      <c r="G25">
+        <v>-0.001873753004902539</v>
+      </c>
+      <c r="H25">
+        <v>0.01191456405191282</v>
+      </c>
+      <c r="I25">
+        <v>0.008146103775697865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02144598277064228</v>
+        <v>-0.0178497575127987</v>
       </c>
       <c r="C26">
-        <v>-0.03126418534625158</v>
+        <v>0.02626305206751744</v>
       </c>
       <c r="D26">
-        <v>-0.005856831565740754</v>
+        <v>0.003104110062436915</v>
       </c>
       <c r="E26">
-        <v>-0.04533217847561913</v>
+        <v>0.002484313826073534</v>
       </c>
       <c r="F26">
-        <v>0.01234552430088733</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04432611792805331</v>
+      </c>
+      <c r="G26">
+        <v>-0.04001171758938861</v>
+      </c>
+      <c r="H26">
+        <v>0.008861551553698655</v>
+      </c>
+      <c r="I26">
+        <v>-0.0005362449230400747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1193920314594067</v>
+        <v>-0.07267837991424887</v>
       </c>
       <c r="C27">
-        <v>-0.03433990043357966</v>
+        <v>0.02786482654743336</v>
       </c>
       <c r="D27">
-        <v>-0.01935292662860183</v>
+        <v>-0.006143678588004592</v>
       </c>
       <c r="E27">
-        <v>-0.03317999956852574</v>
+        <v>0.03625583134197963</v>
       </c>
       <c r="F27">
-        <v>0.07760272125556913</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06474332212008464</v>
+      </c>
+      <c r="G27">
+        <v>-0.01809292616157615</v>
+      </c>
+      <c r="H27">
+        <v>0.02227408145920882</v>
+      </c>
+      <c r="I27">
+        <v>-0.03277631316641946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0199350208099078</v>
+        <v>-0.05451096384420307</v>
       </c>
       <c r="C28">
-        <v>0.2500773565212946</v>
+        <v>-0.241535751976264</v>
       </c>
       <c r="D28">
-        <v>0.0227871860471656</v>
+        <v>0.01396864052517853</v>
       </c>
       <c r="E28">
-        <v>-0.03874653579428157</v>
+        <v>-0.05207860699673098</v>
       </c>
       <c r="F28">
-        <v>0.01751322896011746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05082078158383925</v>
+      </c>
+      <c r="G28">
+        <v>-0.002367197176616599</v>
+      </c>
+      <c r="H28">
+        <v>0.03550106621193341</v>
+      </c>
+      <c r="I28">
+        <v>-0.1570557347737884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0253453184492073</v>
+        <v>-0.02355819931244479</v>
       </c>
       <c r="C29">
-        <v>-0.02654655714552284</v>
+        <v>0.01780247986558329</v>
       </c>
       <c r="D29">
-        <v>-0.03163843704423331</v>
+        <v>-0.01030831501936874</v>
       </c>
       <c r="E29">
-        <v>-0.02458853187599114</v>
+        <v>0.02931451363648481</v>
       </c>
       <c r="F29">
-        <v>0.02079362788596944</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03428810775250332</v>
+      </c>
+      <c r="G29">
+        <v>-0.06003699483885826</v>
+      </c>
+      <c r="H29">
+        <v>0.01604087887937523</v>
+      </c>
+      <c r="I29">
+        <v>-0.002149219413317758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1134262521185894</v>
+        <v>-0.08943988619251712</v>
       </c>
       <c r="C30">
-        <v>-0.02544283523447296</v>
+        <v>0.05149250890413128</v>
       </c>
       <c r="D30">
-        <v>-0.03153299253151671</v>
+        <v>0.0358738423535483</v>
       </c>
       <c r="E30">
-        <v>-0.06842104894661775</v>
+        <v>0.03316032997699905</v>
       </c>
       <c r="F30">
-        <v>0.08719215714975452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1051973584629553</v>
+      </c>
+      <c r="G30">
+        <v>-0.0218640230960661</v>
+      </c>
+      <c r="H30">
+        <v>-0.009515632361658071</v>
+      </c>
+      <c r="I30">
+        <v>0.007855460276421158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06779633567548664</v>
+        <v>-0.06084648454684337</v>
       </c>
       <c r="C31">
-        <v>-0.02083110738102145</v>
+        <v>0.02207428125886156</v>
       </c>
       <c r="D31">
-        <v>-0.0181394317289631</v>
+        <v>0.009237360144031304</v>
       </c>
       <c r="E31">
-        <v>-0.03712010630135595</v>
+        <v>0.02518906315968477</v>
       </c>
       <c r="F31">
-        <v>-0.05668038500964962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.001621274779979865</v>
+      </c>
+      <c r="G31">
+        <v>-0.04891099104088902</v>
+      </c>
+      <c r="H31">
+        <v>0.02817411457879789</v>
+      </c>
+      <c r="I31">
+        <v>-0.01795871725406614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07004859972339643</v>
+        <v>-0.04269421486291449</v>
       </c>
       <c r="C32">
-        <v>-0.04153961955242133</v>
+        <v>0.04462808638593305</v>
       </c>
       <c r="D32">
-        <v>-0.02285379104657704</v>
+        <v>-0.01741617144056264</v>
       </c>
       <c r="E32">
-        <v>-0.05460245455977516</v>
+        <v>0.03743561342984835</v>
       </c>
       <c r="F32">
-        <v>0.08034498261340152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08516209464997093</v>
+      </c>
+      <c r="G32">
+        <v>-0.04330463110477927</v>
+      </c>
+      <c r="H32">
+        <v>0.01849640050711486</v>
+      </c>
+      <c r="I32">
+        <v>-0.03801311242812252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06761207172774121</v>
+        <v>-0.05677819732311176</v>
       </c>
       <c r="C33">
-        <v>-0.05630768938385697</v>
+        <v>0.05380633357417163</v>
       </c>
       <c r="D33">
-        <v>-0.01535624502564974</v>
+        <v>0.01657976150391505</v>
       </c>
       <c r="E33">
-        <v>-0.0625853082187155</v>
+        <v>0.01684870873800212</v>
       </c>
       <c r="F33">
-        <v>0.04566217495501559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07483380301084486</v>
+      </c>
+      <c r="G33">
+        <v>-0.04694919752283556</v>
+      </c>
+      <c r="H33">
+        <v>0.03316444372592613</v>
+      </c>
+      <c r="I33">
+        <v>-0.002622935386275552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04973173620426054</v>
+        <v>-0.0434018893027678</v>
       </c>
       <c r="C34">
-        <v>-0.02131689196862275</v>
+        <v>0.03451789507469891</v>
       </c>
       <c r="D34">
-        <v>-0.003166022360486347</v>
+        <v>-0.006168523135895918</v>
       </c>
       <c r="E34">
-        <v>-0.01892186564359926</v>
+        <v>0.01870188238947575</v>
       </c>
       <c r="F34">
-        <v>0.02346680856057631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03396848027378279</v>
+      </c>
+      <c r="G34">
+        <v>-0.009841858293591126</v>
+      </c>
+      <c r="H34">
+        <v>0.006904063888195193</v>
+      </c>
+      <c r="I34">
+        <v>0.0005699601916721508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01499086397639503</v>
+        <v>-0.01597500891361637</v>
       </c>
       <c r="C36">
-        <v>-0.004511755511590659</v>
+        <v>0.003542084646297514</v>
       </c>
       <c r="D36">
-        <v>-0.01140899393247614</v>
+        <v>-0.004812793253762324</v>
       </c>
       <c r="E36">
-        <v>-0.02056442941877427</v>
+        <v>0.01061796519199239</v>
       </c>
       <c r="F36">
-        <v>0.009533990421140049</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02544096162703824</v>
+      </c>
+      <c r="G36">
+        <v>-0.03995533191240855</v>
+      </c>
+      <c r="H36">
+        <v>0.01696398973318752</v>
+      </c>
+      <c r="I36">
+        <v>0.006487178367534361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04702270373922959</v>
+        <v>-0.03501526236305851</v>
       </c>
       <c r="C38">
-        <v>-0.02551773862179549</v>
+        <v>0.01559282592295059</v>
       </c>
       <c r="D38">
-        <v>-0.02236777762611184</v>
+        <v>-0.004206927717601644</v>
       </c>
       <c r="E38">
-        <v>-0.008328402411847426</v>
+        <v>0.01349584530508304</v>
       </c>
       <c r="F38">
-        <v>0.02606127643005348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04796191069754891</v>
+      </c>
+      <c r="G38">
+        <v>-0.02535901902420963</v>
+      </c>
+      <c r="H38">
+        <v>0.02964258866190972</v>
+      </c>
+      <c r="I38">
+        <v>0.01439313154294928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07124892224321419</v>
+        <v>-0.05334070805365928</v>
       </c>
       <c r="C39">
-        <v>-0.02517053098020111</v>
+        <v>0.04513015423244034</v>
       </c>
       <c r="D39">
-        <v>-0.006223727517795025</v>
+        <v>0.002851685926979467</v>
       </c>
       <c r="E39">
-        <v>-0.03536788199464713</v>
+        <v>0.01838208649829424</v>
       </c>
       <c r="F39">
-        <v>0.02282273207131021</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05297008240577745</v>
+      </c>
+      <c r="G39">
+        <v>-0.01010481799361356</v>
+      </c>
+      <c r="H39">
+        <v>0.01858711759806597</v>
+      </c>
+      <c r="I39">
+        <v>0.02433908338699313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07814891424924243</v>
+        <v>-0.05472326821866469</v>
       </c>
       <c r="C40">
-        <v>-0.0423152446558427</v>
+        <v>0.04212993886787094</v>
       </c>
       <c r="D40">
-        <v>-0.009471413194335584</v>
+        <v>0.01801129000254474</v>
       </c>
       <c r="E40">
-        <v>-0.05050227394422308</v>
+        <v>0.02529805438111753</v>
       </c>
       <c r="F40">
-        <v>0.1004656554181432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09514749407933819</v>
+      </c>
+      <c r="G40">
+        <v>-0.04712065487992198</v>
+      </c>
+      <c r="H40">
+        <v>0.02110397287175133</v>
+      </c>
+      <c r="I40">
+        <v>-0.05104370049024772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004200661920728415</v>
+        <v>-0.003559990323352231</v>
       </c>
       <c r="C41">
-        <v>-0.02935194041583227</v>
+        <v>0.01189904385445936</v>
       </c>
       <c r="D41">
-        <v>-0.02954522981293426</v>
+        <v>-0.0006318173120828567</v>
       </c>
       <c r="E41">
-        <v>-0.01951184918896084</v>
+        <v>0.01160768873478873</v>
       </c>
       <c r="F41">
-        <v>-0.008272341048526921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01204736422444174</v>
+      </c>
+      <c r="G41">
+        <v>-0.04181468216199956</v>
+      </c>
+      <c r="H41">
+        <v>0.03321960392009352</v>
+      </c>
+      <c r="I41">
+        <v>-0.02551014973084986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1455430886038429</v>
+        <v>-0.2261378957805489</v>
       </c>
       <c r="C42">
-        <v>-0.1765986428573445</v>
+        <v>0.2717431743577099</v>
       </c>
       <c r="D42">
-        <v>0.9371084523161932</v>
+        <v>0.04370364631772455</v>
       </c>
       <c r="E42">
-        <v>-0.0009542345625007159</v>
+        <v>-0.9039130709094452</v>
       </c>
       <c r="F42">
-        <v>-0.1052667586685754</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1554152861473686</v>
+      </c>
+      <c r="G42">
+        <v>0.010110439262171</v>
+      </c>
+      <c r="H42">
+        <v>-0.0008076542646422869</v>
+      </c>
+      <c r="I42">
+        <v>-0.06387472076265031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006430461195896984</v>
+        <v>-0.008490127920282255</v>
       </c>
       <c r="C43">
-        <v>-0.02974511910638324</v>
+        <v>0.01384957924708234</v>
       </c>
       <c r="D43">
-        <v>-0.02202359533252694</v>
+        <v>0.002169940820449166</v>
       </c>
       <c r="E43">
-        <v>-0.03098719019059662</v>
+        <v>0.01235267513435916</v>
       </c>
       <c r="F43">
-        <v>0.01357124263700378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02729184067202432</v>
+      </c>
+      <c r="G43">
+        <v>-0.03506368540704802</v>
+      </c>
+      <c r="H43">
+        <v>0.01883299389645249</v>
+      </c>
+      <c r="I43">
+        <v>-0.02008139895453237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04206589712588546</v>
+        <v>-0.02915432689725107</v>
       </c>
       <c r="C44">
-        <v>-0.04650194221633898</v>
+        <v>0.03923527424123729</v>
       </c>
       <c r="D44">
-        <v>-0.01405070135343302</v>
+        <v>-0.003849123032191063</v>
       </c>
       <c r="E44">
-        <v>-0.09849470789119801</v>
+        <v>0.01440989030128093</v>
       </c>
       <c r="F44">
-        <v>0.08761599847423406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1189340313598496</v>
+      </c>
+      <c r="G44">
+        <v>-0.09994038989858364</v>
+      </c>
+      <c r="H44">
+        <v>0.04684619210010774</v>
+      </c>
+      <c r="I44">
+        <v>-0.05354456444133261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0290053341890677</v>
+        <v>-0.02568918070974831</v>
       </c>
       <c r="C46">
-        <v>-0.03226165318490931</v>
+        <v>0.03445829880495092</v>
       </c>
       <c r="D46">
-        <v>-0.03190581504033638</v>
+        <v>0.001198207149792239</v>
       </c>
       <c r="E46">
-        <v>-0.03690820054972809</v>
+        <v>0.03217719211943878</v>
       </c>
       <c r="F46">
-        <v>0.008271059461215658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04640825104504934</v>
+      </c>
+      <c r="G46">
+        <v>-0.06464163586545905</v>
+      </c>
+      <c r="H46">
+        <v>0.01026746859108576</v>
+      </c>
+      <c r="I46">
+        <v>-0.005875771180164413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09282265452995352</v>
+        <v>-0.08730440691315988</v>
       </c>
       <c r="C47">
-        <v>-0.01523194782650442</v>
+        <v>0.01974670971117577</v>
       </c>
       <c r="D47">
-        <v>-0.02097655812617324</v>
+        <v>0.004051665748819983</v>
       </c>
       <c r="E47">
-        <v>-0.002423130838378338</v>
+        <v>0.02873087127009566</v>
       </c>
       <c r="F47">
-        <v>-0.03011085405595309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01225810590937229</v>
+      </c>
+      <c r="G47">
+        <v>-0.06168965652594906</v>
+      </c>
+      <c r="H47">
+        <v>0.0262984388731246</v>
+      </c>
+      <c r="I47">
+        <v>-0.03098565211248185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01962248244969093</v>
+        <v>-0.02067090093641106</v>
       </c>
       <c r="C48">
-        <v>-0.02801117221293638</v>
+        <v>0.0197521849404093</v>
       </c>
       <c r="D48">
-        <v>-0.01725677241688014</v>
+        <v>-0.002017626209835486</v>
       </c>
       <c r="E48">
-        <v>-0.02747107306368602</v>
+        <v>0.01565728403531336</v>
       </c>
       <c r="F48">
-        <v>0.01266517284785433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02604260602443625</v>
+      </c>
+      <c r="G48">
+        <v>-0.02809326138215113</v>
+      </c>
+      <c r="H48">
+        <v>0.01308662268516937</v>
+      </c>
+      <c r="I48">
+        <v>-0.01246293678089216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09158913051266661</v>
+        <v>-0.08784528545685304</v>
       </c>
       <c r="C50">
-        <v>-0.04020530105049695</v>
+        <v>0.03975040883492504</v>
       </c>
       <c r="D50">
-        <v>-0.02238928302406804</v>
+        <v>-0.01290004157713151</v>
       </c>
       <c r="E50">
-        <v>-0.0185487396905994</v>
+        <v>0.02737487988665063</v>
       </c>
       <c r="F50">
-        <v>-0.036477556415101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.006327493835741378</v>
+      </c>
+      <c r="G50">
+        <v>-0.04377236855984647</v>
+      </c>
+      <c r="H50">
+        <v>-0.01328137275969827</v>
+      </c>
+      <c r="I50">
+        <v>0.003717794070039632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05330009546438492</v>
+        <v>-0.0392267820268714</v>
       </c>
       <c r="C51">
-        <v>0.008879910684765218</v>
+        <v>-0.003836716554148994</v>
       </c>
       <c r="D51">
-        <v>-0.00675724776661096</v>
+        <v>0.01161960883305132</v>
       </c>
       <c r="E51">
-        <v>-0.09324047103618514</v>
+        <v>0.01173337809238493</v>
       </c>
       <c r="F51">
-        <v>0.03064648504495764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09470780476790976</v>
+      </c>
+      <c r="G51">
+        <v>-0.07047305521935396</v>
+      </c>
+      <c r="H51">
+        <v>0.04893706407257025</v>
+      </c>
+      <c r="I51">
+        <v>-0.0267513748933452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1408464775112832</v>
+        <v>-0.1246612680859764</v>
       </c>
       <c r="C53">
-        <v>-0.027384264728909</v>
+        <v>0.03886768425404213</v>
       </c>
       <c r="D53">
-        <v>-0.04878811944816704</v>
+        <v>0.003742389237424299</v>
       </c>
       <c r="E53">
-        <v>0.01766234015609938</v>
+        <v>0.05793292829866253</v>
       </c>
       <c r="F53">
-        <v>-0.0551230278430162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04677806080636389</v>
+      </c>
+      <c r="G53">
+        <v>-0.006818569781121467</v>
+      </c>
+      <c r="H53">
+        <v>0.02677402621073715</v>
+      </c>
+      <c r="I53">
+        <v>-0.04009470363520489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02816005301481632</v>
+        <v>-0.02635120155317773</v>
       </c>
       <c r="C54">
-        <v>-0.01027894795544117</v>
+        <v>0.004050513591371858</v>
       </c>
       <c r="D54">
-        <v>-0.03251194438362897</v>
+        <v>-0.005939994089021898</v>
       </c>
       <c r="E54">
-        <v>-0.03059005403235155</v>
+        <v>0.02864232225839958</v>
       </c>
       <c r="F54">
-        <v>0.01501896498404861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03119730565820465</v>
+      </c>
+      <c r="G54">
+        <v>-0.05972447957913213</v>
+      </c>
+      <c r="H54">
+        <v>0.0290462041332789</v>
+      </c>
+      <c r="I54">
+        <v>-0.02579774417590623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1038286178368244</v>
+        <v>-0.09835772228100696</v>
       </c>
       <c r="C55">
-        <v>-0.006769640137953128</v>
+        <v>0.0334254908928187</v>
       </c>
       <c r="D55">
-        <v>-0.04066662610517192</v>
+        <v>-0.01332086165557615</v>
       </c>
       <c r="E55">
-        <v>0.04225477774573139</v>
+        <v>0.03777406350032961</v>
       </c>
       <c r="F55">
-        <v>0.002351512789634069</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03255893215208214</v>
+      </c>
+      <c r="G55">
+        <v>-0.01568629463746436</v>
+      </c>
+      <c r="H55">
+        <v>-0.01159687017671042</v>
+      </c>
+      <c r="I55">
+        <v>-0.01435443499923019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1763457464938839</v>
+        <v>-0.1637985848679616</v>
       </c>
       <c r="C56">
-        <v>0.009800383042529226</v>
+        <v>0.02097552053995385</v>
       </c>
       <c r="D56">
-        <v>-0.0878501211137058</v>
+        <v>-0.0009708160535814586</v>
       </c>
       <c r="E56">
-        <v>0.08314436156609548</v>
+        <v>0.08813573132990299</v>
       </c>
       <c r="F56">
-        <v>-0.07213089771822402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09205695311402169</v>
+      </c>
+      <c r="G56">
+        <v>0.04428625115623493</v>
+      </c>
+      <c r="H56">
+        <v>-0.009680161196028738</v>
+      </c>
+      <c r="I56">
+        <v>-0.03901340525912807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08302633540054881</v>
+        <v>-0.06531560080989575</v>
       </c>
       <c r="C57">
-        <v>-0.03138384813940884</v>
+        <v>0.03254172252004774</v>
       </c>
       <c r="D57">
-        <v>-0.01641609013344791</v>
+        <v>0.01692496150827158</v>
       </c>
       <c r="E57">
-        <v>-0.05793214200125425</v>
+        <v>0.007513239416368763</v>
       </c>
       <c r="F57">
-        <v>0.01472931418274889</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06568945700201746</v>
+      </c>
+      <c r="G57">
+        <v>-0.03326646927373781</v>
+      </c>
+      <c r="H57">
+        <v>0.01535522543714275</v>
+      </c>
+      <c r="I57">
+        <v>-0.004444681195348837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2018908417157967</v>
+        <v>-0.2079843273309009</v>
       </c>
       <c r="C58">
-        <v>-0.03043527456949488</v>
+        <v>0.1031375196558807</v>
       </c>
       <c r="D58">
-        <v>-0.002977043047517076</v>
+        <v>0.0870463579906542</v>
       </c>
       <c r="E58">
-        <v>-0.09793684848758849</v>
+        <v>-0.01679631698122495</v>
       </c>
       <c r="F58">
-        <v>0.09923210208216705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2688394508653927</v>
+      </c>
+      <c r="G58">
+        <v>-0.3432000031574324</v>
+      </c>
+      <c r="H58">
+        <v>-0.3332513826490849</v>
+      </c>
+      <c r="I58">
+        <v>0.3320051791523305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02217396020123346</v>
+        <v>-0.05346352055477208</v>
       </c>
       <c r="C59">
-        <v>0.1954207087210907</v>
+        <v>-0.1987599533661718</v>
       </c>
       <c r="D59">
-        <v>-0.007492368557031332</v>
+        <v>0.02657083005302475</v>
       </c>
       <c r="E59">
-        <v>-0.03822755960718263</v>
+        <v>-0.01592886439459086</v>
       </c>
       <c r="F59">
-        <v>0.03356279199318091</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06482117369629276</v>
+      </c>
+      <c r="G59">
+        <v>0.01791951994762505</v>
+      </c>
+      <c r="H59">
+        <v>0.0140197808058071</v>
+      </c>
+      <c r="I59">
+        <v>-0.05538882203273562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1894278882082652</v>
+        <v>-0.1922057323460408</v>
       </c>
       <c r="C60">
-        <v>0.09094060818171654</v>
+        <v>-0.04721535055801727</v>
       </c>
       <c r="D60">
-        <v>-0.0179262933114798</v>
+        <v>0.05313869091059116</v>
       </c>
       <c r="E60">
-        <v>-0.1267010037265862</v>
+        <v>0.0139411816563469</v>
       </c>
       <c r="F60">
-        <v>0.1241424807020929</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1964346069464448</v>
+      </c>
+      <c r="G60">
+        <v>0.2796129609117697</v>
+      </c>
+      <c r="H60">
+        <v>0.02630347037093131</v>
+      </c>
+      <c r="I60">
+        <v>0.09327800981228314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04276400017881286</v>
+        <v>-0.03840126119194639</v>
       </c>
       <c r="C61">
-        <v>-0.01267556913260262</v>
+        <v>0.02885704327011966</v>
       </c>
       <c r="D61">
-        <v>-0.003074469131303011</v>
+        <v>-0.001681181777564923</v>
       </c>
       <c r="E61">
-        <v>-0.02270912330366185</v>
+        <v>0.008790074429298507</v>
       </c>
       <c r="F61">
-        <v>0.02928391691207248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03865709080947058</v>
+      </c>
+      <c r="G61">
+        <v>9.615183380947224e-05</v>
+      </c>
+      <c r="H61">
+        <v>0.0168428594053818</v>
+      </c>
+      <c r="I61">
+        <v>0.03797417966935698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04393740438200811</v>
+        <v>-0.03150577788523871</v>
       </c>
       <c r="C63">
-        <v>-0.01774523947465186</v>
+        <v>0.02294074403405013</v>
       </c>
       <c r="D63">
-        <v>-0.01472577445869182</v>
+        <v>0.0006893431076048588</v>
       </c>
       <c r="E63">
-        <v>-0.0382088959207178</v>
+        <v>0.01546295757914277</v>
       </c>
       <c r="F63">
-        <v>0.01918420703564774</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02910157936189128</v>
+      </c>
+      <c r="G63">
+        <v>-0.05166301954177037</v>
+      </c>
+      <c r="H63">
+        <v>-0.0004285832307310775</v>
+      </c>
+      <c r="I63">
+        <v>-0.03553826999014307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07594379393600156</v>
+        <v>-0.06026986104815832</v>
       </c>
       <c r="C64">
-        <v>-0.0541478950151403</v>
+        <v>0.04339803070968348</v>
       </c>
       <c r="D64">
-        <v>-0.05630952499736903</v>
+        <v>-0.01621175655502213</v>
       </c>
       <c r="E64">
-        <v>0.008426116589324848</v>
+        <v>0.04539954332408527</v>
       </c>
       <c r="F64">
-        <v>0.04748997180429582</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04434430669421253</v>
+      </c>
+      <c r="G64">
+        <v>-0.01503844438715193</v>
+      </c>
+      <c r="H64">
+        <v>0.07026163131078071</v>
+      </c>
+      <c r="I64">
+        <v>-0.02941818424929003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02256046345981549</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01100172892300868</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006025493998352137</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005360739541955187</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.00350218997498022</v>
+      </c>
+      <c r="G65">
+        <v>0.01043076488949981</v>
+      </c>
+      <c r="H65">
+        <v>-0.01750706817470042</v>
+      </c>
+      <c r="I65">
+        <v>0.01614612519693825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08319964979272335</v>
+        <v>-0.0674345734087979</v>
       </c>
       <c r="C66">
-        <v>-0.03746525563939006</v>
+        <v>0.05518594860129712</v>
       </c>
       <c r="D66">
-        <v>-0.03539378524040662</v>
+        <v>0.01072406335362943</v>
       </c>
       <c r="E66">
-        <v>-0.05199548109185556</v>
+        <v>0.04798913712433004</v>
       </c>
       <c r="F66">
-        <v>0.06118749162684511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06760192384780898</v>
+      </c>
+      <c r="G66">
+        <v>-0.002644543739118734</v>
+      </c>
+      <c r="H66">
+        <v>0.01059954464984933</v>
+      </c>
+      <c r="I66">
+        <v>0.01922733901520923</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05662532564177968</v>
+        <v>-0.04792172151682481</v>
       </c>
       <c r="C67">
-        <v>0.004124753577240509</v>
+        <v>-0.002626371831794685</v>
       </c>
       <c r="D67">
-        <v>-0.01382142859813411</v>
+        <v>0.002167113905661365</v>
       </c>
       <c r="E67">
-        <v>-0.01199107024961325</v>
+        <v>0.009788447292258794</v>
       </c>
       <c r="F67">
-        <v>0.01432419846213761</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03641270560258007</v>
+      </c>
+      <c r="G67">
+        <v>-0.01085475247495285</v>
+      </c>
+      <c r="H67">
+        <v>0.04435198424383692</v>
+      </c>
+      <c r="I67">
+        <v>0.03813439283741773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03685967165987952</v>
+        <v>-0.06471424670852878</v>
       </c>
       <c r="C68">
-        <v>0.2446717615753706</v>
+        <v>-0.2317990592780014</v>
       </c>
       <c r="D68">
-        <v>0.006184297178581282</v>
+        <v>0.02906028526448717</v>
       </c>
       <c r="E68">
-        <v>-0.03612654096275341</v>
+        <v>-0.03232330850656816</v>
       </c>
       <c r="F68">
-        <v>0.01756305222470598</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04883242496688434</v>
+      </c>
+      <c r="G68">
+        <v>0.02410010808828402</v>
+      </c>
+      <c r="H68">
+        <v>-0.006455069949714324</v>
+      </c>
+      <c r="I68">
+        <v>-0.1283460804797187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07249653666381105</v>
+        <v>-0.0726781660463738</v>
       </c>
       <c r="C69">
-        <v>-0.01524132142827347</v>
+        <v>0.02090044785696423</v>
       </c>
       <c r="D69">
-        <v>-0.02390615120856072</v>
+        <v>0.005362720414907356</v>
       </c>
       <c r="E69">
-        <v>-0.005904562477434626</v>
+        <v>0.03210488489910815</v>
       </c>
       <c r="F69">
-        <v>-0.02521457857567461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.002459012126272891</v>
+      </c>
+      <c r="G69">
+        <v>-0.03745836901681492</v>
+      </c>
+      <c r="H69">
+        <v>0.01970859909989155</v>
+      </c>
+      <c r="I69">
+        <v>-0.004842138179127508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02904166951841</v>
+        <v>-0.05985816523922866</v>
       </c>
       <c r="C71">
-        <v>0.2826232623243892</v>
+        <v>-0.2495549072035554</v>
       </c>
       <c r="D71">
-        <v>0.01870318191270076</v>
+        <v>0.03325915530013916</v>
       </c>
       <c r="E71">
-        <v>-0.09087353378786862</v>
+        <v>-0.05927507906976296</v>
       </c>
       <c r="F71">
-        <v>0.02079291007421574</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06828082750967134</v>
+      </c>
+      <c r="G71">
+        <v>0.01547747017363206</v>
+      </c>
+      <c r="H71">
+        <v>0.02265700376286003</v>
+      </c>
+      <c r="I71">
+        <v>-0.1112302401487971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1299174096488141</v>
+        <v>-0.1244470207877133</v>
       </c>
       <c r="C72">
-        <v>0.01576689605773706</v>
+        <v>0.03057640844791665</v>
       </c>
       <c r="D72">
-        <v>-0.04679700025450419</v>
+        <v>0.004568317272356506</v>
       </c>
       <c r="E72">
-        <v>-0.03906912864663593</v>
+        <v>0.0657562054905159</v>
       </c>
       <c r="F72">
-        <v>0.06883668897699571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08183586659637268</v>
+      </c>
+      <c r="G72">
+        <v>0.006571910562491361</v>
+      </c>
+      <c r="H72">
+        <v>-0.03809924638787723</v>
+      </c>
+      <c r="I72">
+        <v>0.1065341793856472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.291400737436348</v>
+        <v>-0.2747354814748006</v>
       </c>
       <c r="C73">
-        <v>0.1873433451677452</v>
+        <v>-0.07487383148136495</v>
       </c>
       <c r="D73">
-        <v>0.03700044372028243</v>
+        <v>0.0933735850442874</v>
       </c>
       <c r="E73">
-        <v>-0.2095024936107849</v>
+        <v>-0.03620092749827262</v>
       </c>
       <c r="F73">
-        <v>0.2556599841588714</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3070499825142995</v>
+      </c>
+      <c r="G73">
+        <v>0.4931925735958345</v>
+      </c>
+      <c r="H73">
+        <v>-0.01485679138937445</v>
+      </c>
+      <c r="I73">
+        <v>0.2941779157104568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1564651587618619</v>
+        <v>-0.1494906940600786</v>
       </c>
       <c r="C74">
-        <v>-0.02059774348031087</v>
+        <v>0.03616486417653867</v>
       </c>
       <c r="D74">
-        <v>-0.03940673020513635</v>
+        <v>0.01060279360052129</v>
       </c>
       <c r="E74">
-        <v>0.0128163676601348</v>
+        <v>0.05160110875416515</v>
       </c>
       <c r="F74">
-        <v>-0.0462428517590472</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06426886962805112</v>
+      </c>
+      <c r="G74">
+        <v>0.025716069845454</v>
+      </c>
+      <c r="H74">
+        <v>-0.005972978314884037</v>
+      </c>
+      <c r="I74">
+        <v>-0.02472836016670196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2379544947897476</v>
+        <v>-0.2419021078059833</v>
       </c>
       <c r="C75">
-        <v>-0.01336900544753921</v>
+        <v>0.02946472341747341</v>
       </c>
       <c r="D75">
-        <v>-0.07894236575424161</v>
+        <v>0.02611603921776596</v>
       </c>
       <c r="E75">
-        <v>0.05714099212578321</v>
+        <v>0.1161056857271794</v>
       </c>
       <c r="F75">
-        <v>-0.1352990484604947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.149590058707079</v>
+      </c>
+      <c r="G75">
+        <v>0.02240781219284416</v>
+      </c>
+      <c r="H75">
+        <v>0.01179147895925652</v>
+      </c>
+      <c r="I75">
+        <v>-0.083381181538392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2472215824901207</v>
+        <v>-0.2622909385030445</v>
       </c>
       <c r="C76">
-        <v>0.01824521928038884</v>
+        <v>0.01636585747558388</v>
       </c>
       <c r="D76">
-        <v>-0.1098684485845965</v>
+        <v>-0.01322718284388858</v>
       </c>
       <c r="E76">
-        <v>0.1066986828753226</v>
+        <v>0.1403047647970701</v>
       </c>
       <c r="F76">
-        <v>-0.09066615499155731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1814881925602427</v>
+      </c>
+      <c r="G76">
+        <v>0.04981110239841553</v>
+      </c>
+      <c r="H76">
+        <v>-0.05585979515774633</v>
+      </c>
+      <c r="I76">
+        <v>-0.04235676278447995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1356459353190197</v>
+        <v>-0.1205502123733997</v>
       </c>
       <c r="C77">
-        <v>-0.05965909672264665</v>
+        <v>0.07612888420159471</v>
       </c>
       <c r="D77">
-        <v>0.03415832356072762</v>
+        <v>0.003995071782776364</v>
       </c>
       <c r="E77">
-        <v>-0.07336095936919902</v>
+        <v>-0.03056881971526949</v>
       </c>
       <c r="F77">
-        <v>0.1493717268699794</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1605849435686357</v>
+      </c>
+      <c r="G77">
+        <v>-0.1755577230420667</v>
+      </c>
+      <c r="H77">
+        <v>-0.04242839879375676</v>
+      </c>
+      <c r="I77">
+        <v>-0.292512931053425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08777462993323792</v>
+        <v>-0.07437053134089343</v>
       </c>
       <c r="C78">
-        <v>-0.04704922122265881</v>
+        <v>0.07386327181461029</v>
       </c>
       <c r="D78">
-        <v>0.009824430917120729</v>
+        <v>-0.008596581194145317</v>
       </c>
       <c r="E78">
-        <v>-0.0276232301306704</v>
+        <v>0.01373872849177249</v>
       </c>
       <c r="F78">
-        <v>0.0478610357307037</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07648606172522296</v>
+      </c>
+      <c r="G78">
+        <v>-0.02589098671763343</v>
+      </c>
+      <c r="H78">
+        <v>0.01567163174872422</v>
+      </c>
+      <c r="I78">
+        <v>-0.03312460895277948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05138312726564281</v>
+        <v>-0.1354386600998003</v>
       </c>
       <c r="C80">
-        <v>0.03687496481848718</v>
+        <v>-0.08330146254556413</v>
       </c>
       <c r="D80">
-        <v>0.06526483412200831</v>
+        <v>-0.9723286122658092</v>
       </c>
       <c r="E80">
-        <v>0.7926036679129446</v>
+        <v>-0.05853702490728425</v>
       </c>
       <c r="F80">
-        <v>0.5248535438690574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04691802770873414</v>
+      </c>
+      <c r="G80">
+        <v>0.03536214049238267</v>
+      </c>
+      <c r="H80">
+        <v>0.04237282283968261</v>
+      </c>
+      <c r="I80">
+        <v>0.05533671415465215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1630434973348592</v>
+        <v>-0.1787576235406114</v>
       </c>
       <c r="C81">
-        <v>-0.01058992322413364</v>
+        <v>0.0122060121902119</v>
       </c>
       <c r="D81">
-        <v>-0.0559388976668437</v>
+        <v>0.006014440339729373</v>
       </c>
       <c r="E81">
-        <v>0.09794275283010379</v>
+        <v>0.08575730707310297</v>
       </c>
       <c r="F81">
-        <v>-0.146873862971579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1582621128320327</v>
+      </c>
+      <c r="G81">
+        <v>0.01545799904621773</v>
+      </c>
+      <c r="H81">
+        <v>-0.02421315551821551</v>
+      </c>
+      <c r="I81">
+        <v>-0.04227791792031669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09091958660815046</v>
+        <v>-0.06802099843834246</v>
       </c>
       <c r="C83">
-        <v>-0.0717992963482962</v>
+        <v>0.05665267604867362</v>
       </c>
       <c r="D83">
-        <v>0.07129283804558377</v>
+        <v>0.01115841370111615</v>
       </c>
       <c r="E83">
-        <v>-0.05331203942650991</v>
+        <v>-0.0348676202672745</v>
       </c>
       <c r="F83">
-        <v>-0.01423538706177421</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04687694737210274</v>
+      </c>
+      <c r="G83">
+        <v>-0.04911558550594849</v>
+      </c>
+      <c r="H83">
+        <v>0.05839989825653018</v>
+      </c>
+      <c r="I83">
+        <v>-0.03753843926227073</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2351709492812487</v>
+        <v>-0.2470873659689183</v>
       </c>
       <c r="C85">
-        <v>-0.05654274927371435</v>
+        <v>0.05736721707027266</v>
       </c>
       <c r="D85">
-        <v>-0.0636344109377925</v>
+        <v>0.003133528898635181</v>
       </c>
       <c r="E85">
-        <v>0.1137937440563316</v>
+        <v>0.1109190100061269</v>
       </c>
       <c r="F85">
-        <v>-0.1137714345274271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.185167334713339</v>
+      </c>
+      <c r="G85">
+        <v>-0.009560000787607131</v>
+      </c>
+      <c r="H85">
+        <v>-0.02662443494316371</v>
+      </c>
+      <c r="I85">
+        <v>-0.06861928429745776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03999566562150523</v>
+        <v>-0.02731546049003805</v>
       </c>
       <c r="C86">
-        <v>-0.0490280065816379</v>
+        <v>0.0503826813747593</v>
       </c>
       <c r="D86">
-        <v>-0.004565429405630834</v>
+        <v>-0.0007205097403539018</v>
       </c>
       <c r="E86">
-        <v>-0.04365601476499779</v>
+        <v>0.01796488560755412</v>
       </c>
       <c r="F86">
-        <v>0.05921963679428045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.0825982416420961</v>
+      </c>
+      <c r="G86">
+        <v>-0.06690022833056959</v>
+      </c>
+      <c r="H86">
+        <v>0.0001582917429699998</v>
+      </c>
+      <c r="I86">
+        <v>-0.02244008520842571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0284453423860785</v>
+        <v>-0.03399278485368603</v>
       </c>
       <c r="C87">
-        <v>0.05288187912217922</v>
+        <v>-0.00797683334156726</v>
       </c>
       <c r="D87">
-        <v>-7.123423850387804e-05</v>
+        <v>0.002312156944491375</v>
       </c>
       <c r="E87">
-        <v>-0.05699501937604672</v>
+        <v>0.001043286424051261</v>
       </c>
       <c r="F87">
-        <v>0.08252254891282351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1046273000399372</v>
+      </c>
+      <c r="G87">
+        <v>-0.002148063394404923</v>
+      </c>
+      <c r="H87">
+        <v>-0.01364260171108701</v>
+      </c>
+      <c r="I87">
+        <v>0.002252032008865689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02823597315226551</v>
+        <v>-0.03153744928923141</v>
       </c>
       <c r="C88">
-        <v>-0.03025898598868855</v>
+        <v>0.01044094059894179</v>
       </c>
       <c r="D88">
-        <v>-8.603835613617619e-05</v>
+        <v>-0.00893318474874392</v>
       </c>
       <c r="E88">
-        <v>0.007581084189294179</v>
+        <v>0.006870661183302687</v>
       </c>
       <c r="F88">
-        <v>-0.007416695476680085</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01222368183368949</v>
+      </c>
+      <c r="G88">
+        <v>-0.04020287292205194</v>
+      </c>
+      <c r="H88">
+        <v>0.04076791949662379</v>
+      </c>
+      <c r="I88">
+        <v>0.01195059456477105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0329084887827461</v>
+        <v>-0.09389001404801468</v>
       </c>
       <c r="C89">
-        <v>0.3898186496844036</v>
+        <v>-0.3856503483149955</v>
       </c>
       <c r="D89">
-        <v>0.08075142278903895</v>
+        <v>0.06446385942686539</v>
       </c>
       <c r="E89">
-        <v>-0.05005709306949337</v>
+        <v>-0.07872995648652649</v>
       </c>
       <c r="F89">
-        <v>-0.03894800094181897</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02800655823378371</v>
+      </c>
+      <c r="G89">
+        <v>-0.05223759189287106</v>
+      </c>
+      <c r="H89">
+        <v>0.02858903422196</v>
+      </c>
+      <c r="I89">
+        <v>-0.2380572280347777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02464089132390652</v>
+        <v>-0.06039289186005642</v>
       </c>
       <c r="C90">
-        <v>0.3012118391868314</v>
+        <v>-0.3164696943439868</v>
       </c>
       <c r="D90">
-        <v>0.03626184160935447</v>
+        <v>0.03398960933741726</v>
       </c>
       <c r="E90">
-        <v>-0.02023927069070255</v>
+        <v>-0.06228728621175517</v>
       </c>
       <c r="F90">
-        <v>0.04150009507908347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03031822701862258</v>
+      </c>
+      <c r="G90">
+        <v>-0.001711946678975531</v>
+      </c>
+      <c r="H90">
+        <v>0.00900830579548886</v>
+      </c>
+      <c r="I90">
+        <v>-0.1897450383778495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2761211980501548</v>
+        <v>-0.2856002672889019</v>
       </c>
       <c r="C91">
-        <v>-0.05441193695714403</v>
+        <v>0.06138420980689629</v>
       </c>
       <c r="D91">
-        <v>-0.07724800835444089</v>
+        <v>0.01193896638145198</v>
       </c>
       <c r="E91">
-        <v>0.1872870059368942</v>
+        <v>0.108438988283629</v>
       </c>
       <c r="F91">
-        <v>-0.2095500215028441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2780963781644938</v>
+      </c>
+      <c r="G91">
+        <v>0.01832070640793559</v>
+      </c>
+      <c r="H91">
+        <v>-0.04661229512209068</v>
+      </c>
+      <c r="I91">
+        <v>-0.08800043150059375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06731103715386284</v>
+        <v>-0.1333005960609494</v>
       </c>
       <c r="C92">
-        <v>0.4047815714391769</v>
+        <v>-0.4057179115483646</v>
       </c>
       <c r="D92">
-        <v>0.1437373369268042</v>
+        <v>0.02210273469231087</v>
       </c>
       <c r="E92">
-        <v>0.108404943518203</v>
+        <v>-0.1116458008617169</v>
       </c>
       <c r="F92">
-        <v>-0.06750425216526774</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1162671351796668</v>
+      </c>
+      <c r="G92">
+        <v>-0.4824876405949693</v>
+      </c>
+      <c r="H92">
+        <v>-0.03507997575764182</v>
+      </c>
+      <c r="I92">
+        <v>0.5264391918558975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01754317505810715</v>
+        <v>-0.07938101262307204</v>
       </c>
       <c r="C93">
-        <v>0.3719026861891947</v>
+        <v>-0.3889542645002187</v>
       </c>
       <c r="D93">
-        <v>0.06533533319236912</v>
+        <v>0.05542640212241023</v>
       </c>
       <c r="E93">
-        <v>0.00450067686945898</v>
+        <v>-0.1047199424760508</v>
       </c>
       <c r="F93">
-        <v>-0.03362274253679173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.004475447341893904</v>
+      </c>
+      <c r="G93">
+        <v>0.01339537339569856</v>
+      </c>
+      <c r="H93">
+        <v>0.05240486015836722</v>
+      </c>
+      <c r="I93">
+        <v>-0.1135880306872106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2876917107978718</v>
+        <v>-0.3084140872433541</v>
       </c>
       <c r="C94">
-        <v>0.07517712832096242</v>
+        <v>-0.02523229246994533</v>
       </c>
       <c r="D94">
-        <v>-0.03299166944182622</v>
+        <v>0.04173200943724614</v>
       </c>
       <c r="E94">
-        <v>0.2237895675322545</v>
+        <v>0.1238162427023645</v>
       </c>
       <c r="F94">
-        <v>-0.280833756805538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3241207479215367</v>
+      </c>
+      <c r="G94">
+        <v>-0.03505979856884343</v>
+      </c>
+      <c r="H94">
+        <v>-0.2265241965457744</v>
+      </c>
+      <c r="I94">
+        <v>-0.03259198341210254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1666312661961234</v>
+        <v>-0.1306790356671381</v>
       </c>
       <c r="C95">
-        <v>-0.0549791892556553</v>
+        <v>0.05891147686808061</v>
       </c>
       <c r="D95">
-        <v>-0.006200000781362054</v>
+        <v>0.08267936669378877</v>
       </c>
       <c r="E95">
-        <v>0.03828677691196376</v>
+        <v>0.03796650842766544</v>
       </c>
       <c r="F95">
-        <v>-0.3904106171488616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.103932215481297</v>
+      </c>
+      <c r="G95">
+        <v>-0.1190790485767412</v>
+      </c>
+      <c r="H95">
+        <v>0.8812821617955429</v>
+      </c>
+      <c r="I95">
+        <v>0.1819144304975857</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.217329440095597</v>
+        <v>-0.2090512668263115</v>
       </c>
       <c r="C98">
-        <v>0.09977028130305712</v>
+        <v>-0.05616635546497905</v>
       </c>
       <c r="D98">
-        <v>0.0270730935028914</v>
+        <v>0.06588451748710128</v>
       </c>
       <c r="E98">
-        <v>-0.09522214583530313</v>
+        <v>-0.02739175004890259</v>
       </c>
       <c r="F98">
-        <v>0.0425413225822075</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1636558589754283</v>
+      </c>
+      <c r="G98">
+        <v>0.3292446001241928</v>
+      </c>
+      <c r="H98">
+        <v>0.02682795365331873</v>
+      </c>
+      <c r="I98">
+        <v>0.1707496309397979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02527756566168469</v>
+        <v>-0.0176881634549024</v>
       </c>
       <c r="C101">
-        <v>-0.02625739827143081</v>
+        <v>0.02761767991800531</v>
       </c>
       <c r="D101">
-        <v>-0.03297092051043758</v>
+        <v>-0.006449880009492394</v>
       </c>
       <c r="E101">
-        <v>-0.02482157005201737</v>
+        <v>0.03627182030887557</v>
       </c>
       <c r="F101">
-        <v>0.02156724769991011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06596945516497882</v>
+      </c>
+      <c r="G101">
+        <v>-0.1193584700751698</v>
+      </c>
+      <c r="H101">
+        <v>-0.0249466611528105</v>
+      </c>
+      <c r="I101">
+        <v>0.0737606926813559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1090731777305474</v>
+        <v>-0.1165767383943621</v>
       </c>
       <c r="C102">
-        <v>-0.03507905323682825</v>
+        <v>0.03080413130829177</v>
       </c>
       <c r="D102">
-        <v>-0.04020773726722004</v>
+        <v>-0.007760579245009688</v>
       </c>
       <c r="E102">
-        <v>0.07950607389530596</v>
+        <v>0.05612166743769793</v>
       </c>
       <c r="F102">
-        <v>-0.06224764843140104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1112700312101144</v>
+      </c>
+      <c r="G102">
+        <v>0.005644017000902326</v>
+      </c>
+      <c r="H102">
+        <v>-0.004946169467610359</v>
+      </c>
+      <c r="I102">
+        <v>-0.06592929826560441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01851743310189895</v>
+        <v>-0.02882320619809283</v>
       </c>
       <c r="C103">
-        <v>-0.01341016308389248</v>
+        <v>0.008153903650918601</v>
       </c>
       <c r="D103">
-        <v>-0.009769993991186138</v>
+        <v>-0.008989485662140889</v>
       </c>
       <c r="E103">
-        <v>0.006503389502374027</v>
+        <v>0.01994321027288609</v>
       </c>
       <c r="F103">
-        <v>-0.03765860882508931</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02620784121589567</v>
+      </c>
+      <c r="G103">
+        <v>-0.01421903449026837</v>
+      </c>
+      <c r="H103">
+        <v>0.01118450150006683</v>
+      </c>
+      <c r="I103">
+        <v>-0.02144228495995231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
